--- a/docs/SuppleTimeDocs.xlsx
+++ b/docs/SuppleTimeDocs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavel\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavel\Desktop\SuppleTime-1\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{269274DF-FF00-4494-80C6-9C98FFFE24B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9B6B09-0D18-4212-B8F9-9840349E5B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C84CC352-BE76-4101-8A34-F8A56692F78B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C84CC352-BE76-4101-8A34-F8A56692F78B}"/>
   </bookViews>
   <sheets>
     <sheet name="Cap Table" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>Owners</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>Single</t>
+  </si>
+  <si>
+    <t>Tolya Hrulev</t>
+  </si>
+  <si>
+    <t>From Tolya</t>
   </si>
 </sst>
 </file>
@@ -123,7 +129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -132,69 +138,313 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -202,89 +452,12 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -292,53 +465,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -657,89 +874,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADBEE7C-592F-498D-9EA4-820E9BF67BE9}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="23">
         <v>500</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="24">
         <f>Investments!A4</f>
-        <v>359</v>
-      </c>
-      <c r="D2" s="12">
+        <v>772</v>
+      </c>
+      <c r="D2" s="25">
         <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="23">
         <v>250</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="24">
+        <f>Investments!D4</f>
         <v>0</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="25">
         <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="23">
         <v>250</v>
       </c>
-      <c r="C4" s="11">
-        <v>0</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="C4" s="24">
+        <f>Investments!G4</f>
+        <v>385</v>
+      </c>
+      <c r="D4" s="25">
         <v>0.25</v>
       </c>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="28">
         <f>SUM(B$2:B4)</f>
         <v>1000</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="29">
         <f>SUM(C$2:C4)</f>
-        <v>359</v>
-      </c>
-      <c r="D5" s="14">
+        <v>1157</v>
+      </c>
+      <c r="D5" s="30">
         <f>SUM(D$2:D4)</f>
         <v>1</v>
       </c>
@@ -753,72 +973,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89546898-D8B7-4D81-B440-70F97E52025D}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="16" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="17"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="17">
         <v>180</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="17">
         <v>399</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="17">
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="19">
         <f>SUM(B$2:B2)</f>
         <v>180</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="19">
         <f>SUM(D$2:D2)</f>
         <v>399</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="19">
         <f>SUM(F$2:F2)</f>
         <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -835,92 +1058,104 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="23"/>
-    <col min="6" max="6" width="11.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="23"/>
-    <col min="9" max="9" width="11.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="1" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="11.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="11.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="19"/>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="25" t="s">
+      <c r="G1" s="9"/>
+      <c r="H1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="2">
         <v>180</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="24" t="s">
-        <v>1</v>
+      <c r="G2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2">
+        <v>385</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="23">
-        <v>179</v>
-      </c>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="2">
+        <v>977</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+      <c r="A4" s="6">
         <f>SUM(B:B)</f>
-        <v>359</v>
-      </c>
-      <c r="D4" s="20">
+        <v>772</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-385</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6">
         <f>SUM(E:E)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="11">
         <f>SUM(H:H)</f>
-        <v>0</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
